--- a/test data/Graphs/astar graph recommendations requests.xlsx
+++ b/test data/Graphs/astar graph recommendations requests.xlsx
@@ -1074,11 +1074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75891840"/>
-        <c:axId val="76234752"/>
+        <c:axId val="78116736"/>
+        <c:axId val="195407872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75891840"/>
+        <c:axId val="78116736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1112,12 +1112,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76234752"/>
+        <c:crossAx val="195407872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76234752"/>
+        <c:axId val="195407872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75891840"/>
+        <c:crossAx val="78116736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1452,11 +1452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165590912"/>
-        <c:axId val="165599488"/>
+        <c:axId val="288739712"/>
+        <c:axId val="288741632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165590912"/>
+        <c:axId val="288739712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,12 +1485,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165599488"/>
+        <c:crossAx val="288741632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165599488"/>
+        <c:axId val="288741632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165590912"/>
+        <c:crossAx val="288739712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1811,11 +1811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165915648"/>
-        <c:axId val="165932416"/>
+        <c:axId val="300227200"/>
+        <c:axId val="78381824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165915648"/>
+        <c:axId val="300227200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1844,12 +1844,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165932416"/>
+        <c:crossAx val="78381824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165932416"/>
+        <c:axId val="78381824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165915648"/>
+        <c:crossAx val="300227200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2170,11 +2170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177615616"/>
-        <c:axId val="178193152"/>
+        <c:axId val="78422400"/>
+        <c:axId val="78424320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177615616"/>
+        <c:axId val="78422400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,12 +2203,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178193152"/>
+        <c:crossAx val="78424320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178193152"/>
+        <c:axId val="78424320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177615616"/>
+        <c:crossAx val="78422400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2294,7 +2294,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2529,11 +2528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178359296"/>
-        <c:axId val="178386432"/>
+        <c:axId val="78432512"/>
+        <c:axId val="78434688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178359296"/>
+        <c:axId val="78432512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,19 +2554,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178386432"/>
+        <c:crossAx val="78434688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178386432"/>
+        <c:axId val="78434688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,14 +2591,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178359296"/>
+        <c:crossAx val="78432512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3032,11 +3029,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="256676992"/>
-        <c:axId val="286417280"/>
+        <c:axId val="78794752"/>
+        <c:axId val="78796672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256676992"/>
+        <c:axId val="78794752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,7 +3062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286417280"/>
+        <c:crossAx val="78796672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3073,7 +3070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286417280"/>
+        <c:axId val="78796672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3106,7 +3103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256676992"/>
+        <c:crossAx val="78794752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3604,7 +3601,7 @@
   <dimension ref="A1:AD121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
